--- a/TEMOA_Europe_Results/2_Results_ct+_nuc-/_5_Final_consumption.xlsx
+++ b/TEMOA_Europe_Results/2_Results_ct+_nuc-/_5_Final_consumption.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="150">
   <si>
     <t>tech</t>
   </si>
@@ -89,9 +89,6 @@
     <t>ELC_FT_SOL_CSP</t>
   </si>
   <si>
-    <t>ELC_FT_WAV</t>
-  </si>
-  <si>
     <t>ELC_FT_TDL</t>
   </si>
   <si>
@@ -233,7 +230,7 @@
     <t>TRA_FT_AMM_ELCSYS_CU</t>
   </si>
   <si>
-    <t>TRA_FT_AMM_ELCSYS_DT</t>
+    <t>TRA_FT_MTH</t>
   </si>
   <si>
     <t>HH2_DEL_TRA_LH2_C_1_NEW</t>
@@ -242,12 +239,12 @@
     <t>HH2_DEL_TRA_LH2_C_2_NEW</t>
   </si>
   <si>
-    <t>HH2_DEL_TRA_GH2_C_2_NEW</t>
-  </si>
-  <si>
     <t>HH2_DEL_TRA_GH2_C_4_NEW</t>
   </si>
   <si>
+    <t>HH2_DEL_TRA_LH2_D_1_NEW</t>
+  </si>
+  <si>
     <t>TRA_FT_DST_INT</t>
   </si>
   <si>
@@ -257,12 +254,15 @@
     <t>TRA_FT_AMM_INT_ELCSYS_CU</t>
   </si>
   <si>
-    <t>TRA_FT_AMM_INT_ELCSYS_DT</t>
+    <t>TRA_FT_MTH_INT</t>
   </si>
   <si>
     <t>HH2_DEL_TRA_LH2_INT_C_1_NEW</t>
   </si>
   <si>
+    <t>HH2_DEL_TRA_LH2_INT_C_2_NEW</t>
+  </si>
+  <si>
     <t>IND_FT_NGA</t>
   </si>
   <si>
@@ -311,6 +311,9 @@
     <t>IND_FT_HET</t>
   </si>
   <si>
+    <t>HH2_DEL_IND_C_1_NEW</t>
+  </si>
+  <si>
     <t>HH2_WE_DEL_IND_C_1_NEW</t>
   </si>
   <si>
@@ -347,112 +350,118 @@
     <t>PRI_OIL_LPG</t>
   </si>
   <si>
+    <t>PRI_GAS_COG</t>
+  </si>
+  <si>
+    <t>PRI_GAS_OXY</t>
+  </si>
+  <si>
+    <t>PRI_COA_BCO</t>
+  </si>
+  <si>
+    <t>PRI_COA_HCO</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_MUN</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_WOD</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_SLU</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_CRP_STC</t>
+  </si>
+  <si>
+    <t>RNW_POT_HYD</t>
+  </si>
+  <si>
+    <t>RNW_POT_GEO</t>
+  </si>
+  <si>
+    <t>RNW_POT_SOL_PV</t>
+  </si>
+  <si>
+    <t>RNW_POT_SOL_TH</t>
+  </si>
+  <si>
+    <t>RNW_POT_SOL_CSP</t>
+  </si>
+  <si>
+    <t>RNW_POT_TDL</t>
+  </si>
+  <si>
+    <t>RNW_POT_WIN_ON</t>
+  </si>
+  <si>
+    <t>RNW_POT_WIN_OFF</t>
+  </si>
+  <si>
+    <t>PRI_OIL_DST_kt</t>
+  </si>
+  <si>
+    <t>PRI_OIL_GSL_kt</t>
+  </si>
+  <si>
+    <t>PRI_OIL_KER</t>
+  </si>
+  <si>
+    <t>PRI_COA_OVC</t>
+  </si>
+  <si>
+    <t>RNW_POT_BIO_LIQ</t>
+  </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t>RNW_BIO_ETH</t>
+  </si>
+  <si>
+    <t>RNW_BIO_ETBE</t>
+  </si>
+  <si>
+    <t>SYN_DST_kt</t>
+  </si>
+  <si>
+    <t>RNW_BIO_EMHV</t>
+  </si>
+  <si>
+    <t>PRI_OIL_KER_kt</t>
+  </si>
+  <si>
+    <t>HH2_WE_CU</t>
+  </si>
+  <si>
+    <t>SYN_MTH</t>
+  </si>
+  <si>
+    <t>HH2_CU</t>
+  </si>
+  <si>
+    <t>HH2_CT</t>
+  </si>
+  <si>
+    <t>HH2_DT</t>
+  </si>
+  <si>
     <t>PRI_GAS_BFG</t>
   </si>
   <si>
-    <t>PRI_GAS_COG</t>
-  </si>
-  <si>
-    <t>PRI_GAS_OXY</t>
-  </si>
-  <si>
-    <t>PRI_COA_BCO</t>
-  </si>
-  <si>
-    <t>PRI_COA_HCO</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_MUN</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_WOD</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_SLU</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_CRP_STC</t>
-  </si>
-  <si>
-    <t>RNW_POT_HYD</t>
-  </si>
-  <si>
-    <t>RNW_POT_GEO</t>
-  </si>
-  <si>
-    <t>RNW_POT_SOL_PV</t>
-  </si>
-  <si>
-    <t>RNW_POT_SOL_TH</t>
-  </si>
-  <si>
-    <t>RNW_POT_SOL_CSP</t>
-  </si>
-  <si>
-    <t>RNW_POT_WAV</t>
-  </si>
-  <si>
-    <t>RNW_POT_TDL</t>
-  </si>
-  <si>
-    <t>RNW_POT_WIN_ON</t>
-  </si>
-  <si>
-    <t>RNW_POT_WIN_OFF</t>
-  </si>
-  <si>
-    <t>PRI_OIL_DST_kt</t>
-  </si>
-  <si>
-    <t>PRI_OIL_GSL_kt</t>
-  </si>
-  <si>
-    <t>PRI_OIL_KER</t>
-  </si>
-  <si>
-    <t>PRI_COA_OVC</t>
-  </si>
-  <si>
-    <t>RNW_POT_BIO_LIQ</t>
-  </si>
-  <si>
-    <t>HET</t>
-  </si>
-  <si>
-    <t>RNW_BIO_ETH</t>
-  </si>
-  <si>
-    <t>RNW_BIO_ETBE</t>
-  </si>
-  <si>
-    <t>RNW_BIO_EMHV</t>
-  </si>
-  <si>
-    <t>PRI_OIL_KER_kt</t>
-  </si>
-  <si>
-    <t>HH2_WE_CU</t>
+    <t>PRI_OIL_GSL</t>
+  </si>
+  <si>
+    <t>PRI_GAS_ETH</t>
+  </si>
+  <si>
+    <t>PRI_OIL_NAP</t>
+  </si>
+  <si>
+    <t>RNW_BIO_NAP</t>
   </si>
   <si>
     <t>HH2_WE_DT</t>
-  </si>
-  <si>
-    <t>HH2_CU</t>
-  </si>
-  <si>
-    <t>HH2_CT</t>
-  </si>
-  <si>
-    <t>PRI_OIL_GSL</t>
-  </si>
-  <si>
-    <t>PRI_GAS_ETH</t>
-  </si>
-  <si>
-    <t>PRI_OIL_NAP</t>
-  </si>
-  <si>
-    <t>RNW_BIO_NAP</t>
   </si>
   <si>
     <t>output_comm</t>
@@ -813,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,34 +871,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>219.0859746915574</v>
+        <v>220.1636727898045</v>
       </c>
       <c r="E2">
-        <v>219.0859746915575</v>
+        <v>220.1636727898044</v>
       </c>
       <c r="F2">
-        <v>219.0859746915575</v>
+        <v>220.1636727898044</v>
       </c>
       <c r="G2">
-        <v>172.6339993380937</v>
+        <v>173.172951328272</v>
       </c>
       <c r="H2">
-        <v>154.2191618344877</v>
+        <v>152.2067094869851</v>
       </c>
       <c r="I2">
-        <v>136.1816052512392</v>
+        <v>130.5929942023676</v>
       </c>
       <c r="J2">
-        <v>126.6741430457162</v>
+        <v>118.1588172760297</v>
       </c>
       <c r="K2">
-        <v>119.9746959323481</v>
+        <v>110.7875356573561</v>
       </c>
       <c r="L2">
-        <v>89.68664988424591</v>
+        <v>78.70401881691829</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -900,34 +909,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1428661437572329</v>
+        <v>0.142866143756607</v>
       </c>
       <c r="F3">
         <v>0.1428661437572329</v>
       </c>
       <c r="G3">
-        <v>8.225595130065659E-06</v>
+        <v>7.974797479747412E-06</v>
       </c>
       <c r="H3">
-        <v>2.885791912829231</v>
+        <v>11.15126186857601</v>
       </c>
       <c r="I3">
-        <v>3.37425591763201</v>
+        <v>29.2732888032453</v>
       </c>
       <c r="J3">
-        <v>10.77337582824651</v>
+        <v>49.66751069468336</v>
       </c>
       <c r="K3">
-        <v>10.77337582824651</v>
+        <v>65.82124614924395</v>
       </c>
       <c r="L3">
-        <v>96.26206437003162</v>
+        <v>151.3679049017449</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -938,25 +947,25 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>7902.5004361916</v>
+        <v>7902.500436191603</v>
       </c>
       <c r="E4">
-        <v>5208.835638865128</v>
+        <v>5208.600715664013</v>
       </c>
       <c r="F4">
-        <v>6019.970049692382</v>
+        <v>6013.835342359465</v>
       </c>
       <c r="G4">
-        <v>1955.000393075164</v>
+        <v>1955.997473320306</v>
       </c>
       <c r="H4">
-        <v>873.6575063256201</v>
+        <v>864.0657311124108</v>
       </c>
       <c r="I4">
-        <v>278.4883912452101</v>
+        <v>43.07230263505246</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -976,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -991,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>324.9240555501532</v>
+        <v>373.3273390692694</v>
       </c>
       <c r="I5">
-        <v>103.9607856688855</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1014,25 +1023,25 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>7.19290402562859</v>
+        <v>7.192904025628611</v>
       </c>
       <c r="E6">
         <v>5.154705166510124</v>
       </c>
       <c r="F6">
-        <v>3.773525970328306</v>
+        <v>3.773525970328305</v>
       </c>
       <c r="G6">
-        <v>2.919320413190047</v>
+        <v>2.919320413190054</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.997892547100236</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6120476068965519</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1052,25 +1061,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>2.055115435893883</v>
       </c>
       <c r="E7">
-        <v>1.472772904717147</v>
+        <v>1.472772904717178</v>
       </c>
       <c r="F7">
-        <v>1.078150277236659</v>
+        <v>1.07815027723666</v>
       </c>
       <c r="G7">
-        <v>0.8340915466257279</v>
+        <v>0.8340915466257278</v>
       </c>
       <c r="H7">
-        <v>0.6272383204988472</v>
+        <v>0.5708264420285848</v>
       </c>
       <c r="I7">
-        <v>0.2263026046135632</v>
+        <v>0.1748707448275863</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1090,25 +1099,25 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>65.76369394860421</v>
+        <v>65.76369394860403</v>
       </c>
       <c r="E8">
-        <v>47.12873295094975</v>
+        <v>47.12873295094971</v>
       </c>
       <c r="F8">
-        <v>34.50080887157308</v>
+        <v>34.50080887157307</v>
       </c>
       <c r="G8">
-        <v>26.69092949202327</v>
+        <v>26.69092949202328</v>
       </c>
       <c r="H8">
-        <v>97.74028886384794</v>
+        <v>19.78592547100024</v>
       </c>
       <c r="I8">
-        <v>50.91808603805171</v>
+        <v>5.595863834482762</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1128,25 +1137,25 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D9">
         <v>5.137788589734708</v>
       </c>
       <c r="E9">
-        <v>3.681932261792946</v>
+        <v>3.681932261792945</v>
       </c>
       <c r="F9">
-        <v>2.695375693091648</v>
+        <v>2.695375693091647</v>
       </c>
       <c r="G9">
-        <v>2.085228866564319</v>
+        <v>2.085228866564321</v>
       </c>
       <c r="H9">
-        <v>1.568095801247125</v>
+        <v>0.042</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4371768620689656</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1166,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10">
-        <v>914.5263689727781</v>
+        <v>914.5263689727783</v>
       </c>
       <c r="E10">
-        <v>655.3839425991443</v>
+        <v>655.3839425991441</v>
       </c>
       <c r="F10">
         <v>479.7768733703132</v>
@@ -1181,10 +1190,10 @@
         <v>371.1707382484489</v>
       </c>
       <c r="H10">
-        <v>208.8046123923038</v>
+        <v>254.0177667027201</v>
       </c>
       <c r="I10">
-        <v>58.49922329260609</v>
+        <v>77.81748144827588</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1204,25 +1213,25 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11">
         <v>31.85428925635519</v>
       </c>
       <c r="E11">
-        <v>22.82798002311622</v>
+        <v>22.82798002311626</v>
       </c>
       <c r="F11">
         <v>16.71132929716821</v>
       </c>
       <c r="G11">
-        <v>12.92841897269877</v>
+        <v>12.92841897269878</v>
       </c>
       <c r="H11">
-        <v>4.565305711276439</v>
+        <v>8.847809851443058</v>
       </c>
       <c r="I11">
-        <v>3.507690371510224</v>
+        <v>2.710496544827587</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1242,25 +1251,25 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12">
-        <v>1.027557717947047</v>
+        <v>1.027557717946942</v>
       </c>
       <c r="E12">
-        <v>0.7363864523585875</v>
+        <v>0.7363864523585733</v>
       </c>
       <c r="F12">
-        <v>0.5390751386183295</v>
+        <v>0.5390751386183293</v>
       </c>
       <c r="G12">
-        <v>0.4170457733128927</v>
+        <v>0.417045773312864</v>
       </c>
       <c r="H12">
-        <v>0.3136191602494235</v>
+        <v>0.151</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.08743537241379314</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1280,10 +1289,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>36.75589192963099</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1298,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.266007528862581</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.9668972258867033</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3.423716846124905</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1318,22 +1327,22 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14">
-        <v>36.76216628849315</v>
+        <v>6.556162686183983</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5.540027581195945</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4.863873857991248</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.823009431584631</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.560814372929178</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1356,22 +1365,22 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15">
-        <v>6.574397605693198</v>
+        <v>3565.121443885783</v>
       </c>
       <c r="E15">
-        <v>5.54002758119603</v>
+        <v>4111.176396947612</v>
       </c>
       <c r="F15">
-        <v>4.865415361380561</v>
+        <v>2431.936928995599</v>
       </c>
       <c r="G15">
-        <v>2.771266710077057</v>
+        <v>610.1347297681781</v>
       </c>
       <c r="H15">
-        <v>1.55603660476325</v>
+        <v>375.9391585381688</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1394,34 +1403,34 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>3400.700551856862</v>
+        <v>5580.53948390615</v>
       </c>
       <c r="E16">
-        <v>4373.770997277923</v>
+        <v>4569.560854750327</v>
       </c>
       <c r="F16">
-        <v>1626.637018717141</v>
+        <v>2427.073055137607</v>
       </c>
       <c r="G16">
-        <v>1385.633355038527</v>
+        <v>2210.05169238487</v>
       </c>
       <c r="H16">
-        <v>778.0183023815429</v>
+        <v>1183.314400018079</v>
       </c>
       <c r="I16">
-        <v>275.5335842954187</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>28.31784135361921</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>54.61424971340453</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>94.49458495305301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1429,37 +1438,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17">
-        <v>5746.504456372239</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4368.230969696728</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>3233.912927302133</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1382.86208832845</v>
+        <v>275.7521933988669</v>
       </c>
       <c r="H17">
-        <v>776.4622657767795</v>
+        <v>345.5984376703659</v>
       </c>
       <c r="I17">
-        <v>267.267576766556</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>35.17507647960765</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>170.2098231821309</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>133.7532047886129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1470,34 +1479,34 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18">
-        <v>85.908065903264</v>
+        <v>1645.837844850829</v>
       </c>
       <c r="E18">
-        <v>16.28157894736844</v>
+        <v>1476.362871472214</v>
       </c>
       <c r="F18">
-        <v>0.014</v>
+        <v>1570.875148662386</v>
       </c>
       <c r="G18">
-        <v>236.3765749875911</v>
+        <v>926.6031316151773</v>
       </c>
       <c r="H18">
-        <v>170.912669116733</v>
+        <v>714.5782673494432</v>
       </c>
       <c r="I18">
-        <v>358.6248554369694</v>
+        <v>838.7812426372792</v>
       </c>
       <c r="J18">
-        <v>170.7767083218521</v>
+        <v>351.2327253315394</v>
       </c>
       <c r="K18">
-        <v>153.6600067150864</v>
+        <v>901.5845819012807</v>
       </c>
       <c r="L18">
-        <v>590.3793130207729</v>
+        <v>926.7985603939375</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1508,19 +1517,19 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D19">
-        <v>423.7733441741178</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>545.0272343231001</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>668.0837217977885</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>30.96060429219948</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1529,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>23.61574853156075</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1543,37 +1552,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D20">
-        <v>1172.579600694811</v>
+        <v>172.7</v>
       </c>
       <c r="E20">
-        <v>890.3682347933016</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>876.876984149849</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>971.2620070364225</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>853.7193425632554</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>446.6841215634848</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>279.8786046989205</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>322.6953063056864</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>201.9303613726503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1581,37 +1590,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21">
-        <v>0.014</v>
+        <v>338.6496726982737</v>
       </c>
       <c r="E21">
-        <v>25.95</v>
+        <v>406.2301643058865</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>462.3052631578948</v>
       </c>
       <c r="G21">
-        <v>25.82120131542391</v>
+        <v>150.783339658486</v>
       </c>
       <c r="H21">
-        <v>34.68215585879629</v>
+        <v>163.0375340383176</v>
       </c>
       <c r="I21">
-        <v>38.95</v>
+        <v>46.96805391860896</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>48.3</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>53.60000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1619,28 +1628,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22">
-        <v>172.7</v>
+        <v>23.29769572277893</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>25.13825674674494</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.445411357097801</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>38.95</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1657,37 +1666,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D23">
-        <v>338.391934096736</v>
+        <v>2088.78</v>
       </c>
       <c r="E23">
-        <v>431.3684210526316</v>
+        <v>2123.37</v>
       </c>
       <c r="F23">
-        <v>463.0484233668762</v>
+        <v>2231.010000000001</v>
       </c>
       <c r="G23">
-        <v>143.5117659038347</v>
+        <v>2298.483511399469</v>
       </c>
       <c r="H23">
-        <v>170.5894575838034</v>
+        <v>2324.499351711454</v>
       </c>
       <c r="I23">
-        <v>170.5894575838035</v>
+        <v>1871.702489408026</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1567.945277796824</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1288.328940203176</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1231.329196361841</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1695,37 +1704,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D24">
-        <v>23.55543432431665</v>
+        <v>173.640209608387</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>182.8141320302347</v>
       </c>
       <c r="F24">
-        <v>27.0568397910185</v>
+        <v>200.6982414823854</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>176.2400724321579</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>262.7457386608937</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>302.2132660210571</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>346.6937370317655</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>401.0399542479545</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>460.8774461036638</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1733,37 +1742,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D25">
-        <v>2088.780000000001</v>
+        <v>164.23</v>
       </c>
       <c r="E25">
-        <v>2123.37</v>
+        <v>361.6799999999999</v>
       </c>
       <c r="F25">
-        <v>2231.010000000001</v>
+        <v>583.6799999999999</v>
       </c>
       <c r="G25">
-        <v>2254.39802365085</v>
+        <v>1426.851704772</v>
       </c>
       <c r="H25">
-        <v>2334.424228511762</v>
+        <v>2247.121715421933</v>
       </c>
       <c r="I25">
-        <v>1995.924788663964</v>
+        <v>2753.127667931947</v>
       </c>
       <c r="J25">
-        <v>1635.487181309171</v>
+        <v>2734.671787155827</v>
       </c>
       <c r="K25">
-        <v>1333.510173643005</v>
+        <v>2732.265018263832</v>
       </c>
       <c r="L25">
-        <v>1261.361142994162</v>
+        <v>2888.613578638817</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1771,37 +1780,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D26">
-        <v>173.640209608387</v>
+        <v>0.2120264392857142</v>
       </c>
       <c r="E26">
-        <v>182.8141320302348</v>
+        <v>1.085192100765306</v>
       </c>
       <c r="F26">
-        <v>200.5605544520826</v>
+        <v>2.903255721428571</v>
       </c>
       <c r="G26">
-        <v>176.4471239952266</v>
+        <v>2.893333996428571</v>
       </c>
       <c r="H26">
-        <v>263.0683884470279</v>
+        <v>2.730916182142857</v>
       </c>
       <c r="I26">
-        <v>271.5527357043998</v>
+        <v>1.837907070663265</v>
       </c>
       <c r="J26">
-        <v>347.1706585934533</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>401.5683137146847</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>461.4546321261975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1809,37 +1818,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D27">
-        <v>164.23</v>
+        <v>2.74</v>
       </c>
       <c r="E27">
-        <v>361.6799999999999</v>
+        <v>20.13</v>
       </c>
       <c r="F27">
-        <v>583.6800000000001</v>
+        <v>20.46</v>
       </c>
       <c r="G27">
-        <v>1432.0479041064</v>
+        <v>18.88705370817091</v>
       </c>
       <c r="H27">
-        <v>2178.592309875186</v>
+        <v>17.39028576</v>
       </c>
       <c r="I27">
-        <v>2573.407702754511</v>
+        <v>14.04454874934794</v>
       </c>
       <c r="J27">
-        <v>2769.346901467665</v>
+        <v>7.714302982482531</v>
       </c>
       <c r="K27">
-        <v>2871.081630414853</v>
+        <v>7.328450574336689</v>
       </c>
       <c r="L27">
-        <v>2843.972198567452</v>
+        <v>0.140984841599997</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1847,28 +1856,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D28">
-        <v>0.2120264392857142</v>
+        <v>1.72</v>
       </c>
       <c r="E28">
-        <v>1.085192100765306</v>
+        <v>1.76</v>
       </c>
       <c r="F28">
-        <v>2.903255721428571</v>
+        <v>1.85</v>
       </c>
       <c r="G28">
-        <v>2.893333996428571</v>
+        <v>7.794563904000001</v>
       </c>
       <c r="H28">
-        <v>2.730916182142856</v>
+        <v>0.7854986880000008</v>
       </c>
       <c r="I28">
-        <v>1.832809907066773</v>
+        <v>0.6042297600000006</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1885,37 +1894,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D29">
-        <v>2.74</v>
+        <v>550.08</v>
       </c>
       <c r="E29">
-        <v>20.13</v>
+        <v>983.02</v>
       </c>
       <c r="F29">
-        <v>20.46</v>
+        <v>1530.69</v>
       </c>
       <c r="G29">
-        <v>21.29069812937665</v>
+        <v>2431.02574757626</v>
       </c>
       <c r="H29">
-        <v>22.11834121234686</v>
+        <v>3013.850131116876</v>
       </c>
       <c r="I29">
-        <v>22.95746076950318</v>
+        <v>3159.188491889055</v>
       </c>
       <c r="J29">
-        <v>12.87364302838331</v>
+        <v>3215.085316426118</v>
       </c>
       <c r="K29">
-        <v>12.8006111428026</v>
+        <v>3298.434022568731</v>
       </c>
       <c r="L29">
-        <v>0.1514903101946201</v>
+        <v>3558.569686116179</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1923,37 +1932,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D30">
-        <v>0.0729444266666667</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0.07294442666666671</v>
+        <v>126.62</v>
       </c>
       <c r="F30">
-        <v>0.04156456010062896</v>
+        <v>259.57</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>961.5299415996063</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2084.224253728108</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4186.249774045133</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>5901.861504821144</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>6704.493055830031</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>7573.496979108441</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1961,37 +1970,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="D31">
-        <v>1.647055573333333</v>
+        <v>170.8961693548362</v>
       </c>
       <c r="E31">
-        <v>1.687055573333333</v>
+        <v>144.0823264017617</v>
       </c>
       <c r="F31">
-        <v>1.808435439899371</v>
+        <v>108.9114541736091</v>
       </c>
       <c r="G31">
-        <v>6.739759968201258</v>
+        <v>129.2233147559125</v>
       </c>
       <c r="H31">
-        <v>0.7854986880000008</v>
+        <v>98.19486601071443</v>
       </c>
       <c r="I31">
-        <v>0.6130598400000007</v>
+        <v>98.08010718099125</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>66.65732621607535</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>95.76841760974888</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>83.71861541835577</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1999,37 +2008,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32">
-        <v>550.08</v>
+        <v>16200.96593949488</v>
       </c>
       <c r="E32">
-        <v>983.0199999999999</v>
+        <v>16304.90697674419</v>
       </c>
       <c r="F32">
-        <v>1530.69</v>
+        <v>16304.90697674419</v>
       </c>
       <c r="G32">
-        <v>2468.279922474173</v>
+        <v>15158.79397852657</v>
       </c>
       <c r="H32">
-        <v>2943.553234432893</v>
+        <v>15040.37279447655</v>
       </c>
       <c r="I32">
-        <v>3116.31461993886</v>
+        <v>15287.70398163427</v>
       </c>
       <c r="J32">
-        <v>3126.819061302033</v>
+        <v>15439.69564290836</v>
       </c>
       <c r="K32">
-        <v>3232.053544693489</v>
+        <v>15533.64431192905</v>
       </c>
       <c r="L32">
-        <v>3388.11225270503</v>
+        <v>16304.90697674419</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2037,37 +2046,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>121.4954954838869</v>
       </c>
       <c r="E33">
-        <v>126.62</v>
+        <v>127.1084867608177</v>
       </c>
       <c r="F33">
-        <v>259.57</v>
+        <v>1422.077713192206</v>
       </c>
       <c r="G33">
-        <v>972.6225741496798</v>
+        <v>1422.077713192206</v>
       </c>
       <c r="H33">
-        <v>2114.886276950981</v>
+        <v>1422.077713192205</v>
       </c>
       <c r="I33">
-        <v>3028.06610821076</v>
+        <v>1422.077713192206</v>
       </c>
       <c r="J33">
-        <v>4205.949328133815</v>
+        <v>1422.077713192206</v>
       </c>
       <c r="K33">
-        <v>4795.107504777756</v>
+        <v>1422.077713192206</v>
       </c>
       <c r="L33">
-        <v>5795.082566755023</v>
+        <v>1422.077713192206</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2075,37 +2084,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D34">
-        <v>170.8961693548394</v>
+        <v>28.23347222222223</v>
       </c>
       <c r="E34">
-        <v>126.9842806867995</v>
+        <v>21.17510416666666</v>
       </c>
       <c r="F34">
-        <v>108.9586942635267</v>
+        <v>14.11673611111111</v>
       </c>
       <c r="G34">
-        <v>129.271575773657</v>
+        <v>7.058368055555556</v>
       </c>
       <c r="H34">
-        <v>65.16334015749054</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>99.02360983557006</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>98.87592570875572</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>101.9445593667088</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>80.33828916189016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2113,37 +2122,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D35">
-        <v>16200.96593949489</v>
+        <v>2.551922221624049</v>
       </c>
       <c r="E35">
-        <v>16304.90697674419</v>
+        <v>2.551922221624049</v>
       </c>
       <c r="F35">
-        <v>16304.90697674419</v>
+        <v>2.551922221624049</v>
       </c>
       <c r="G35">
-        <v>15179.27410124662</v>
+        <v>0.1880208333333333</v>
       </c>
       <c r="H35">
-        <v>15060.73159685678</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>15348.01745480508</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>15667.04165698999</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>16068.64003382372</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>16304.90697674419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2151,37 +2160,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D36">
-        <v>121.4954954838869</v>
+        <v>3.664258461538463</v>
       </c>
       <c r="E36">
-        <v>127.1084867608177</v>
+        <v>5.221568307692309</v>
       </c>
       <c r="F36">
-        <v>1399.191537537256</v>
+        <v>3.481045538461538</v>
       </c>
       <c r="G36">
-        <v>1399.191537537256</v>
+        <v>1.740522769230768</v>
       </c>
       <c r="H36">
-        <v>1399.191537537256</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1399.191537537256</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1399.191537537256</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>1399.191537537256</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1399.191537537256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2189,22 +2198,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D37">
-        <v>28.23347222222221</v>
+        <v>17.76944615384616</v>
       </c>
       <c r="E37">
-        <v>21.17510416666667</v>
+        <v>25.32146076923077</v>
       </c>
       <c r="F37">
-        <v>14.11673611111111</v>
+        <v>16.88097384615385</v>
       </c>
       <c r="G37">
-        <v>7.058368055555555</v>
+        <v>8.44048692307692</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2233,16 +2242,16 @@
         <v>130</v>
       </c>
       <c r="D38">
-        <v>2.551922221624046</v>
+        <v>0.6401415384615385</v>
       </c>
       <c r="E38">
-        <v>2.551922221624046</v>
+        <v>0.9122016923076929</v>
       </c>
       <c r="F38">
-        <v>2.551922221624046</v>
+        <v>0.6081344615384615</v>
       </c>
       <c r="G38">
-        <v>0.1880208333333333</v>
+        <v>0.3040672307692307</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2268,19 +2277,19 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D39">
-        <v>3.66425846153846</v>
+        <v>31.832</v>
       </c>
       <c r="E39">
-        <v>5.221568307692307</v>
+        <v>31.832</v>
       </c>
       <c r="F39">
-        <v>3.481045538461537</v>
+        <v>31.832</v>
       </c>
       <c r="G39">
-        <v>1.740522769230768</v>
+        <v>9.06261872688526</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2289,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>29.62314062255475</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>23.15422749106624</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2303,22 +2312,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D40">
-        <v>17.76944615384615</v>
+        <v>1.031534070712851</v>
       </c>
       <c r="E40">
-        <v>25.32146076923078</v>
+        <v>0.5798166094679021</v>
       </c>
       <c r="F40">
-        <v>16.88097384615385</v>
+        <v>0.6005694805277904</v>
       </c>
       <c r="G40">
-        <v>8.44048692307692</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2341,25 +2350,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D41">
-        <v>0.6401415384615401</v>
+        <v>28.57361002500146</v>
       </c>
       <c r="E41">
-        <v>0.9122016923076925</v>
+        <v>30.49835365801165</v>
       </c>
       <c r="F41">
-        <v>0.6081344615384618</v>
+        <v>12.1400830706689</v>
       </c>
       <c r="G41">
-        <v>0.3040672307692308</v>
+        <v>12.29377877484491</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2.066882642128508</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2382,22 +2391,22 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D42">
-        <v>32.81610555316284</v>
+        <v>0.8023042772210758</v>
       </c>
       <c r="E42">
-        <v>32.81610555316284</v>
+        <v>0.8117432532550577</v>
       </c>
       <c r="F42">
-        <v>32.81610555316285</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>9.062618726884994</v>
+        <v>0.3893957078005176</v>
       </c>
       <c r="H42">
-        <v>32.81610555316284</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2409,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>23.15422749106623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2417,22 +2426,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="D43">
-        <v>13.63553786506248</v>
+        <v>26.9</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>26.09174742605559</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>30.15716748650261</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>15.13080464596296</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2458,22 +2467,22 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D44">
-        <v>22.17764524356411</v>
+        <v>1.813684210526316</v>
       </c>
       <c r="E44">
-        <v>8.320519185840965</v>
+        <v>2.5845</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.723</v>
       </c>
       <c r="G44">
-        <v>17.39868401212571</v>
+        <v>0.8614999999999999</v>
       </c>
       <c r="H44">
-        <v>0.2378967399756028</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2493,37 +2502,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D45">
-        <v>0.5305656756833494</v>
+        <v>207.486</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>217.79</v>
       </c>
       <c r="F45">
-        <v>0.7431602089815037</v>
+        <v>246.315</v>
       </c>
       <c r="G45">
-        <v>5.528798684576095</v>
+        <v>300.6009525070324</v>
       </c>
       <c r="H45">
-        <v>0.2178441412037129</v>
+        <v>311.5817416163493</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>318.7563482716258</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>322.0556658683221</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>326.2606952244112</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>326.2606952244113</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2531,28 +2540,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
         <v>132</v>
       </c>
       <c r="D46">
-        <v>16.71281878402552</v>
+        <v>21.256</v>
       </c>
       <c r="E46">
-        <v>48.05</v>
+        <v>9.03392105263158</v>
       </c>
       <c r="F46">
-        <v>40.5435180677686</v>
+        <v>13.1736701316915</v>
       </c>
       <c r="G46">
-        <v>3.275354670957398</v>
+        <v>8.1254201316915</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2.014170131691499</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2.014170131691499</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2569,37 +2578,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D47">
-        <v>3.446</v>
+        <v>2036.596301775395</v>
       </c>
       <c r="E47">
-        <v>2.584499999999999</v>
+        <v>2084.960126540209</v>
       </c>
       <c r="F47">
-        <v>1.723</v>
+        <v>2048.975854663245</v>
       </c>
       <c r="G47">
-        <v>0.8615</v>
+        <v>1963.922860341829</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1038.326888185846</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1501.485412182931</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1529.97391161786</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1544.797272446332</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1541.0346073558</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2607,37 +2616,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D48">
-        <v>207.486</v>
+        <v>16910.28040664012</v>
       </c>
       <c r="E48">
-        <v>217.79</v>
+        <v>14825.29170032893</v>
       </c>
       <c r="F48">
-        <v>246.3149999999999</v>
+        <v>12017.64838192721</v>
       </c>
       <c r="G48">
-        <v>300.6967023662376</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="H48">
-        <v>311.6794054298787</v>
+        <v>21455.88372093023</v>
       </c>
       <c r="I48">
-        <v>318.0116046768338</v>
+        <v>16912.49113295733</v>
       </c>
       <c r="J48">
-        <v>319.2974590751296</v>
+        <v>13674.88781229643</v>
       </c>
       <c r="K48">
-        <v>319.2974590751296</v>
+        <v>15155.0053793999</v>
       </c>
       <c r="L48">
-        <v>319.2974590751298</v>
+        <v>16533.19121118717</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2645,37 +2654,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D49">
-        <v>21.256</v>
+        <v>19.37985714285714</v>
       </c>
       <c r="E49">
-        <v>9.033921052631579</v>
+        <v>14.53489285714286</v>
       </c>
       <c r="F49">
-        <v>14.80563952339548</v>
+        <v>9.68992857142857</v>
       </c>
       <c r="G49">
-        <v>9.757389523395478</v>
+        <v>4.844964285714284</v>
       </c>
       <c r="H49">
-        <v>3.646139523395477</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>3.646139523395477</v>
+        <v>40.698</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>40.698</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>40.698</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>40.698</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2683,37 +2692,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D50">
-        <v>2036.633059352797</v>
+        <v>1.462085371617629</v>
       </c>
       <c r="E50">
-        <v>2085.076928602253</v>
+        <v>1.096564028713222</v>
       </c>
       <c r="F50">
-        <v>2049.083359838978</v>
+        <v>0.7310426858088148</v>
       </c>
       <c r="G50">
-        <v>1990.013809337918</v>
+        <v>0.3655213429044072</v>
       </c>
       <c r="H50">
-        <v>1194.279181098833</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>1349.251411346859</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>1400.610783065109</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>1414.386535697695</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>1411.663550174194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2721,37 +2730,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D51">
-        <v>16904.1806400318</v>
+        <v>40.34932999999998</v>
       </c>
       <c r="E51">
-        <v>14820.71687537269</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>11966.45262621745</v>
+        <v>32.78670999999999</v>
       </c>
       <c r="G51">
-        <v>21455.88372093023</v>
+        <v>30.15816999999999</v>
       </c>
       <c r="H51">
-        <v>21455.88372093023</v>
+        <v>39.79049279419712</v>
       </c>
       <c r="I51">
-        <v>17273.76258775578</v>
+        <v>40.34932999999999</v>
       </c>
       <c r="J51">
-        <v>21455.88372093023</v>
+        <v>33.59323301738762</v>
       </c>
       <c r="K51">
-        <v>21455.88372093023</v>
+        <v>18.1153173189051</v>
       </c>
       <c r="L51">
-        <v>21455.88372093023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2759,34 +2768,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D52">
-        <v>19.37985714285719</v>
+        <v>181.334636</v>
       </c>
       <c r="E52">
-        <v>14.53489285714286</v>
+        <v>190.8105959999999</v>
       </c>
       <c r="F52">
-        <v>9.68992857142864</v>
+        <v>147.347332</v>
       </c>
       <c r="G52">
-        <v>4.844964285714284</v>
+        <v>191.525796</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>181.8934732058029</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>181.334636</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>150.9719413252008</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>81.41236724496174</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -2803,28 +2812,28 @@
         <v>130</v>
       </c>
       <c r="D53">
-        <v>1.724375335775278</v>
+        <v>15.665034</v>
       </c>
       <c r="E53">
-        <v>1.293281501831416</v>
+        <v>13.483404</v>
       </c>
       <c r="F53">
-        <v>0.8621876678876679</v>
+        <v>12.728958</v>
       </c>
       <c r="G53">
-        <v>0.6269688339438336</v>
+        <v>15.665034</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>15.665034</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>15.665034</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>13.04207870086813</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>7.033005547339629</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -2838,34 +2847,34 @@
         <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D54">
-        <v>30.15816999999999</v>
+        <v>66.026</v>
       </c>
       <c r="E54">
-        <v>30.15816999999999</v>
+        <v>66.026</v>
       </c>
       <c r="F54">
-        <v>30.15816999999999</v>
+        <v>13.65014831989247</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="I54">
-        <v>31.12208317552181</v>
+        <v>66.026</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>66.026</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2873,37 +2882,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D55">
-        <v>191.525796</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>160.652426</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>149.975872</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>221.683966</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>217.0201739790001</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="I55">
-        <v>139.8663032123451</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="J55">
-        <v>78.0013308672858</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>75.74827975975582</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2911,31 +2920,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D56">
-        <v>15.665034</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="E56">
-        <v>13.483404</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>12.728958</v>
+        <v>56.36402829131656</v>
       </c>
       <c r="G56">
-        <v>15.665034</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>15.33547267945825</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>12.08269111520258</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>5.511871346082296</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -2952,34 +2961,34 @@
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D57">
-        <v>66.026</v>
+        <v>87.58499999999999</v>
       </c>
       <c r="E57">
-        <v>66.026</v>
+        <v>163.3332797597558</v>
       </c>
       <c r="F57">
-        <v>15.72042083333333</v>
+        <v>120.0395886429022</v>
       </c>
       <c r="G57">
-        <v>66.026</v>
+        <v>45.99528832748308</v>
       </c>
       <c r="H57">
-        <v>66.026</v>
+        <v>87.58499999999999</v>
       </c>
       <c r="I57">
-        <v>66.026</v>
+        <v>120.0395886429022</v>
       </c>
       <c r="J57">
-        <v>66.026</v>
+        <v>100.655337174463</v>
       </c>
       <c r="K57">
-        <v>66.026</v>
+        <v>128.1036169342188</v>
       </c>
       <c r="L57">
-        <v>66.026</v>
+        <v>100.655337174463</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2987,10 +2996,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2999,25 +3008,25 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>7.937576633123725</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>87.58499999999999</v>
+        <v>32.45458864290219</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>19.38425146843925</v>
       </c>
       <c r="K58">
-        <v>87.58499999999999</v>
+        <v>48.3</v>
       </c>
       <c r="L58">
-        <v>87.58499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3028,34 +3037,34 @@
         <v>45</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D59">
-        <v>56.38424593837537</v>
+        <v>0.2559717086834734</v>
       </c>
       <c r="E59">
-        <v>56.38424593837537</v>
+        <v>1.448720240244215</v>
       </c>
       <c r="F59">
-        <v>79.64742336687625</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>12.60338306578126</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3063,37 +3072,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D60">
-        <v>87.58499999999999</v>
+        <v>5.649397147293032</v>
       </c>
       <c r="E60">
-        <v>106.9490338213804</v>
+        <v>7.674402341051636</v>
       </c>
       <c r="F60">
-        <v>89.58292287360922</v>
+        <v>9.427</v>
       </c>
       <c r="G60">
-        <v>71.13132192627343</v>
+        <v>4.889586416628297</v>
       </c>
       <c r="H60">
-        <v>89.58292287360922</v>
+        <v>0.1947015814467147</v>
       </c>
       <c r="I60">
-        <v>177.1679228736092</v>
+        <v>0.2639831805060915</v>
       </c>
       <c r="J60">
-        <v>177.1679228736092</v>
+        <v>0.3322723593951085</v>
       </c>
       <c r="K60">
-        <v>89.58292287360922</v>
+        <v>0.3985013069338332</v>
       </c>
       <c r="L60">
-        <v>89.58292287360922</v>
+        <v>0.4559705397882652</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3101,37 +3110,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D61">
-        <v>0.2357540616246499</v>
+        <v>181.7295367611747</v>
       </c>
       <c r="E61">
-        <v>1.448720240244215</v>
+        <v>479.0645955194081</v>
       </c>
       <c r="F61">
-        <v>11.83907712639076</v>
+        <v>737.1801051494451</v>
       </c>
       <c r="G61">
-        <v>11.83907712639076</v>
+        <v>1007.066684062868</v>
       </c>
       <c r="H61">
-        <v>11.83907712639076</v>
+        <v>1007.066684062868</v>
       </c>
       <c r="I61">
-        <v>11.83907712639076</v>
+        <v>1007.066684062868</v>
       </c>
       <c r="J61">
-        <v>11.83907712639076</v>
+        <v>1007.066684062868</v>
       </c>
       <c r="K61">
-        <v>11.83907712639076</v>
+        <v>1007.066684062868</v>
       </c>
       <c r="L61">
-        <v>11.83907712639076</v>
+        <v>1007.066684062868</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3139,37 +3148,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D62">
-        <v>9.427</v>
+        <v>3268.416000000001</v>
       </c>
       <c r="E62">
-        <v>9.427</v>
+        <v>3261.199999999998</v>
       </c>
       <c r="F62">
-        <v>9.423961829890693</v>
+        <v>3036.045</v>
       </c>
       <c r="G62">
-        <v>4.851488197450214</v>
+        <v>3419.477262419617</v>
       </c>
       <c r="H62">
-        <v>0.1947015814467148</v>
+        <v>4141.650381681736</v>
       </c>
       <c r="I62">
-        <v>0.2639831805060239</v>
+        <v>3998.562660119762</v>
       </c>
       <c r="J62">
-        <v>0.3322723593951087</v>
+        <v>4101.151755464947</v>
       </c>
       <c r="K62">
-        <v>0.3985013069338333</v>
+        <v>4007.83544967629</v>
       </c>
       <c r="L62">
-        <v>0.3985013069341864</v>
+        <v>3899.720174900709</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3177,37 +3186,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D63">
-        <v>176.1037639523274</v>
+        <v>517.228</v>
       </c>
       <c r="E63">
-        <v>477.2954858597965</v>
+        <v>379.371</v>
       </c>
       <c r="F63">
-        <v>768.0567557743767</v>
+        <v>384.232</v>
       </c>
       <c r="G63">
-        <v>1013.482641162225</v>
+        <v>241.9419725510062</v>
       </c>
       <c r="H63">
-        <v>1013.482641162225</v>
+        <v>390.0153929898663</v>
       </c>
       <c r="I63">
-        <v>1013.482641162225</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1013.482641162225</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>1013.482641162225</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1013.482641162225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3215,37 +3224,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D64">
-        <v>3268.416</v>
+        <v>5882.633064516128</v>
       </c>
       <c r="E64">
-        <v>3261.2</v>
+        <v>5202.961189331325</v>
       </c>
       <c r="F64">
-        <v>3036.045</v>
+        <v>5199.168934687294</v>
       </c>
       <c r="G64">
-        <v>3413.55550419453</v>
+        <v>5329.674941156168</v>
       </c>
       <c r="H64">
-        <v>4033.429003987637</v>
+        <v>4952.690952922134</v>
       </c>
       <c r="I64">
-        <v>3982.604827077097</v>
+        <v>5491.518926530686</v>
       </c>
       <c r="J64">
-        <v>3973.476182127286</v>
+        <v>5519.86396263448</v>
       </c>
       <c r="K64">
-        <v>3921.434148475563</v>
+        <v>5606.980177432863</v>
       </c>
       <c r="L64">
-        <v>3889.36518254883</v>
+        <v>5571.028989164702</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3256,34 +3265,34 @@
         <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D65">
-        <v>517.228</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>379.3710000000001</v>
+        <v>79.03495772035124</v>
       </c>
       <c r="F65">
-        <v>384.232</v>
+        <v>71.6428555536844</v>
       </c>
       <c r="G65">
-        <v>226.1278435564264</v>
+        <v>14.38087499837395</v>
       </c>
       <c r="H65">
-        <v>467.8487813794812</v>
+        <v>77.95978541859458</v>
       </c>
       <c r="I65">
-        <v>239.0329387222944</v>
+        <v>69.47648420479472</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>96.8774561397431</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>66.42303628261509</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>44.12390432985915</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3294,34 +3303,34 @@
         <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D66">
-        <v>5882.633064516129</v>
+        <v>42118.26218835742</v>
       </c>
       <c r="E66">
-        <v>5202.962489013004</v>
+        <v>27891.88612731632</v>
       </c>
       <c r="F66">
-        <v>5199.17023436897</v>
+        <v>26774.97572033957</v>
       </c>
       <c r="G66">
-        <v>5347.863974463943</v>
+        <v>25034.83698402979</v>
       </c>
       <c r="H66">
-        <v>4786.891691890796</v>
+        <v>22720.78406248553</v>
       </c>
       <c r="I66">
-        <v>5293.633034655218</v>
+        <v>11105.52157304286</v>
       </c>
       <c r="J66">
-        <v>5605.877381811586</v>
+        <v>6446.221385642701</v>
       </c>
       <c r="K66">
-        <v>5620.816325746121</v>
+        <v>1526.962095712079</v>
       </c>
       <c r="L66">
-        <v>5619.139484168161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3329,37 +3338,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>15.38006294117647</v>
       </c>
       <c r="E67">
-        <v>79.03365859992712</v>
+        <v>11.53504720588235</v>
       </c>
       <c r="F67">
-        <v>71.64155643326147</v>
+        <v>15.32353720588235</v>
       </c>
       <c r="G67">
-        <v>14.19577378324674</v>
+        <v>3.845015735294115</v>
       </c>
       <c r="H67">
-        <v>77.92696908964638</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>71.49422760861341</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>91.50982563918484</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>69.14369102393839</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>51.31248692175663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3367,34 +3376,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D68">
-        <v>39634.94629756455</v>
+        <v>46.97397724516862</v>
       </c>
       <c r="E68">
-        <v>27814.10897147164</v>
+        <v>33.6141285989011</v>
       </c>
       <c r="F68">
-        <v>26672.80998228355</v>
+        <v>26.81195752747253</v>
       </c>
       <c r="G68">
-        <v>24885.76935734508</v>
+        <v>11.20470953296704</v>
       </c>
       <c r="H68">
-        <v>27576.10386000479</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>11754.3763029704</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>14095.51831193974</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>2839.355119660815</v>
+        <v>0</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3405,34 +3414,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D69">
-        <v>32.00732460784309</v>
+        <v>63.32993</v>
       </c>
       <c r="E69">
-        <v>11.53504720588235</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>31.95079887254877</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>3.845015735294115</v>
+        <v>34.69812878189617</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>109.11892</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>95.23484225377243</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>14.69163936982435</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -3446,31 +3455,31 @@
         <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D70">
-        <v>74.81508835627983</v>
+        <v>559.28979</v>
       </c>
       <c r="E70">
-        <v>54.49496193223442</v>
+        <v>458.3741062499999</v>
       </c>
       <c r="F70">
-        <v>47.69279086080586</v>
+        <v>336.08657</v>
       </c>
       <c r="G70">
-        <v>18.16498731074481</v>
+        <v>163.2853119148056</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>513.5008</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>527.3848777462275</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>69.13712644623227</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -3481,34 +3490,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>19.25628</v>
       </c>
       <c r="E71">
-        <v>80.33360624999997</v>
+        <v>14.17651875</v>
       </c>
       <c r="F71">
-        <v>58.90177</v>
+        <v>10.39443</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>6.123199196805209</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>19.25628</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>19.25628</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2.59264224173371</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -3522,34 +3531,34 @@
         <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D72">
-        <v>622.6197200000001</v>
+        <v>126.8606857142857</v>
       </c>
       <c r="E72">
-        <v>378.0405</v>
+        <v>263.6637207206151</v>
       </c>
       <c r="F72">
-        <v>277.1848</v>
+        <v>231.9485492920437</v>
       </c>
       <c r="G72">
-        <v>198.4609924824161</v>
+        <v>397.267</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="I72">
-        <v>60.9959488438688</v>
+        <v>397.267</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>397.267</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>397.267</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3557,28 +3566,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D73">
-        <v>19.25628</v>
+        <v>85.65032730172626</v>
       </c>
       <c r="E73">
-        <v>14.17651875000001</v>
+        <v>41.41983569411337</v>
       </c>
       <c r="F73">
-        <v>10.39443</v>
+        <v>8.694736842105211</v>
       </c>
       <c r="G73">
-        <v>6.137968839662353</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
-        <v>1.886472644655736</v>
+        <v>59.09068128861009</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -3587,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>235.4244837387797</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3598,34 +3607,34 @@
         <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D74">
-        <v>189.1748962406017</v>
+        <v>1130.686465483149</v>
       </c>
       <c r="E74">
-        <v>246.127305088603</v>
+        <v>991.5146038048156</v>
       </c>
       <c r="F74">
-        <v>198.8335810284526</v>
+        <v>754.9945049379693</v>
       </c>
       <c r="G74">
-        <v>397.267</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>397.267</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>293.0208670918482</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>397.267</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>397.267</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>397.267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3633,37 +3642,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>147.3152072151245</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>171.4005605010712</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>404.8937582199258</v>
       </c>
       <c r="G75">
-        <v>57.17597212934721</v>
+        <v>1183.32361357075</v>
       </c>
       <c r="H75">
-        <v>54.97718632023646</v>
+        <v>1363.652</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1304.56131871139</v>
       </c>
       <c r="J75">
-        <v>403.5876046989206</v>
+        <v>1363.652</v>
       </c>
       <c r="K75">
-        <v>384.9193063056863</v>
+        <v>1363.652</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>1128.227516261221</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3674,34 +3683,34 @@
         <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="E76">
-        <v>298.8715080407675</v>
+        <v>523.97</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>523.97</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3709,37 +3718,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D77">
-        <v>1363.652</v>
+        <v>43.61390455624549</v>
       </c>
       <c r="E77">
-        <v>905.4634919592326</v>
+        <v>43.61390455624549</v>
       </c>
       <c r="F77">
-        <v>1168.583</v>
+        <v>34.25901207732596</v>
       </c>
       <c r="G77">
-        <v>1121.04355522783</v>
+        <v>16.21479140513653</v>
       </c>
       <c r="H77">
-        <v>1308.674813679764</v>
+        <v>1.745323646548612</v>
       </c>
       <c r="I77">
-        <v>1363.652</v>
+        <v>2.365632742881283</v>
       </c>
       <c r="J77">
-        <v>960.0643953010795</v>
+        <v>2.97399060883951</v>
       </c>
       <c r="K77">
-        <v>978.7326936943139</v>
+        <v>3.561544445111799</v>
       </c>
       <c r="L77">
-        <v>1363.652</v>
+        <v>3.666583356548113</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3747,37 +3756,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D78">
-        <v>523.97</v>
+        <v>82.60509544375452</v>
       </c>
       <c r="E78">
-        <v>523.97</v>
+        <v>111.9570954437545</v>
       </c>
       <c r="F78">
-        <v>523.97</v>
+        <v>134.8139879226741</v>
       </c>
       <c r="G78">
-        <v>523.97</v>
+        <v>134.813987922674</v>
       </c>
       <c r="H78">
-        <v>523.97</v>
+        <v>134.813987922674</v>
       </c>
       <c r="I78">
-        <v>523.97</v>
+        <v>134.813987922674</v>
       </c>
       <c r="J78">
-        <v>523.97</v>
+        <v>134.813987922674</v>
       </c>
       <c r="K78">
-        <v>523.97</v>
+        <v>134.8139879226741</v>
       </c>
       <c r="L78">
-        <v>523.97</v>
+        <v>134.813987922674</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3785,37 +3794,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D79">
-        <v>43.61390455624548</v>
+        <v>3307.747</v>
       </c>
       <c r="E79">
-        <v>43.61390455624548</v>
+        <v>3150.42</v>
       </c>
       <c r="F79">
-        <v>34.05568348237634</v>
+        <v>3264.414</v>
       </c>
       <c r="G79">
-        <v>16.0308318042842</v>
+        <v>2978.33173679707</v>
       </c>
       <c r="H79">
-        <v>1.422673860414301</v>
+        <v>3112.920382247869</v>
       </c>
       <c r="I79">
-        <v>1.888542494779499</v>
+        <v>2975.145933564164</v>
       </c>
       <c r="J79">
-        <v>2.49706904715157</v>
+        <v>3000.772951178852</v>
       </c>
       <c r="K79">
-        <v>3.033184978381512</v>
+        <v>3152.967176826175</v>
       </c>
       <c r="L79">
-        <v>3.146866566868451</v>
+        <v>3265.867600040606</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3823,37 +3832,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D80">
-        <v>82.60509544375452</v>
+        <v>949.6909999999999</v>
       </c>
       <c r="E80">
-        <v>111.9570954437545</v>
+        <v>866.5870000000001</v>
       </c>
       <c r="F80">
-        <v>135.0173165176236</v>
+        <v>847.413</v>
       </c>
       <c r="G80">
-        <v>135.0173165176236</v>
+        <v>829.3214365303818</v>
       </c>
       <c r="H80">
-        <v>135.0173165176237</v>
+        <v>753.0657332937551</v>
       </c>
       <c r="I80">
-        <v>114.1292189365799</v>
+        <v>156.6161725461776</v>
       </c>
       <c r="J80">
-        <v>135.0173165176237</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>135.0173165176236</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>135.0173165176237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3861,37 +3870,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D81">
-        <v>3307.747</v>
+        <v>79217.1418674875</v>
       </c>
       <c r="E81">
-        <v>3150.42</v>
+        <v>70720.61381623764</v>
       </c>
       <c r="F81">
-        <v>3264.414000000002</v>
+        <v>63040.75572271757</v>
       </c>
       <c r="G81">
-        <v>2960.332744270705</v>
+        <v>72853.01097550039</v>
       </c>
       <c r="H81">
-        <v>3123.91258416593</v>
+        <v>61074.41664528834</v>
       </c>
       <c r="I81">
-        <v>2999.591959705667</v>
+        <v>60971.64050718337</v>
       </c>
       <c r="J81">
-        <v>3046.605647305712</v>
+        <v>55390.07848747828</v>
       </c>
       <c r="K81">
-        <v>3192.351803625421</v>
+        <v>59028.27592587208</v>
       </c>
       <c r="L81">
-        <v>3303.602238623282</v>
+        <v>52872.39265484893</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3905,31 +3914,31 @@
         <v>133</v>
       </c>
       <c r="D82">
-        <v>949.6909999999999</v>
+        <v>344.4223559455978</v>
       </c>
       <c r="E82">
-        <v>866.5870000000001</v>
+        <v>307.4809296358159</v>
       </c>
       <c r="F82">
-        <v>847.413</v>
+        <v>274.090242272685</v>
       </c>
       <c r="G82">
-        <v>847.413</v>
+        <v>316.7522216326104</v>
       </c>
       <c r="H82">
-        <v>724.6406532894737</v>
+        <v>3716.353710907327</v>
       </c>
       <c r="I82">
-        <v>710.3950347482244</v>
+        <v>265.0940891616669</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>240.8264282064273</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>256.6446779385742</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>229.8799680645606</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3937,37 +3946,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D83">
-        <v>79217.14186748717</v>
+        <v>6544.024762966361</v>
       </c>
       <c r="E83">
-        <v>70720.61381623767</v>
+        <v>5842.137663080503</v>
       </c>
       <c r="F83">
-        <v>63062.10694215229</v>
+        <v>5207.714603181018</v>
       </c>
       <c r="G83">
-        <v>72853.43318827824</v>
+        <v>6018.292211019599</v>
       </c>
       <c r="H83">
-        <v>56903.77832426164</v>
+        <v>5329.110981678431</v>
       </c>
       <c r="I83">
-        <v>47547.75670454184</v>
+        <v>5036.787694071671</v>
       </c>
       <c r="J83">
-        <v>41395.24244140878</v>
+        <v>4575.70213592212</v>
       </c>
       <c r="K83">
-        <v>47547.41304048795</v>
+        <v>4876.248880832911</v>
       </c>
       <c r="L83">
-        <v>49500.78092808707</v>
+        <v>4367.719393226651</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3978,34 +3987,34 @@
         <v>63</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D84">
-        <v>344.4223559455963</v>
+        <v>205539.0254968777</v>
       </c>
       <c r="E84">
-        <v>307.4809296358159</v>
+        <v>219100.3696534288</v>
       </c>
       <c r="F84">
-        <v>274.1830736615318</v>
+        <v>211333.8333026217</v>
       </c>
       <c r="G84">
-        <v>316.7540573403402</v>
+        <v>210507.3487231962</v>
       </c>
       <c r="H84">
-        <v>3462.572044989514</v>
+        <v>188726.7996813303</v>
       </c>
       <c r="I84">
-        <v>206.7293769762688</v>
+        <v>149236.5761740873</v>
       </c>
       <c r="J84">
-        <v>179.9793149626469</v>
+        <v>148985.411970381</v>
       </c>
       <c r="K84">
-        <v>206.7278827847302</v>
+        <v>128331.0194394993</v>
       </c>
       <c r="L84">
-        <v>215.2207866438568</v>
+        <v>53016.30627192495</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4019,31 +4028,31 @@
         <v>135</v>
       </c>
       <c r="D85">
-        <v>6544.024762966332</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>5842.137663080503</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>5209.478399569102</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>6018.327089466463</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>4965.197649418925</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>3927.858162549108</v>
+        <v>21215.86401234659</v>
       </c>
       <c r="J85">
-        <v>3419.60698429029</v>
+        <v>9545.335602835419</v>
       </c>
       <c r="K85">
-        <v>3927.829772909874</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>4089.194946233281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4051,37 +4060,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C86" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D86">
-        <v>205539.025496878</v>
+        <v>5592.273121501841</v>
       </c>
       <c r="E86">
-        <v>219100.3696534287</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>211310.0781553262</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>212626.1841949566</v>
+        <v>9597.4</v>
       </c>
       <c r="H86">
-        <v>190583.499371055</v>
+        <v>12181.8</v>
       </c>
       <c r="I86">
-        <v>177271.3947240244</v>
+        <v>14426.4</v>
       </c>
       <c r="J86">
-        <v>146992.4479115275</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>130317.5077471694</v>
+        <v>18915.65</v>
       </c>
       <c r="L86">
-        <v>42622.6031659775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4092,34 +4101,34 @@
         <v>64</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D87">
-        <v>5592.273121501918</v>
+        <v>7440.438491302202</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>8087.043507027061</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>4769.284525849926</v>
       </c>
       <c r="G87">
-        <v>7230.908434137675</v>
+        <v>8428.673142576765</v>
       </c>
       <c r="H87">
-        <v>12181.8</v>
+        <v>8880.115393079437</v>
       </c>
       <c r="I87">
-        <v>8705.555281845031</v>
+        <v>9277.091423365639</v>
       </c>
       <c r="J87">
-        <v>16671</v>
+        <v>9679.933362930615</v>
       </c>
       <c r="K87">
-        <v>18915.65</v>
+        <v>10042.64657414973</v>
       </c>
       <c r="L87">
-        <v>13351.60664945124</v>
+        <v>10345.59247099006</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4130,34 +4139,34 @@
         <v>65</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D88">
-        <v>7440.438491302202</v>
+        <v>0.291</v>
       </c>
       <c r="E88">
-        <v>8087.043507027061</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>4769.284525849926</v>
+        <v>0.369</v>
       </c>
       <c r="G88">
-        <v>8428.673142576759</v>
+        <v>0.105</v>
       </c>
       <c r="H88">
-        <v>8880.115393079439</v>
+        <v>0.06937853016278178</v>
       </c>
       <c r="I88">
-        <v>9277.09142336564</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>9679.933362930613</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>10042.64657414973</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>10345.59247099006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4165,22 +4174,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>0.2910000000000001</v>
       </c>
       <c r="E89">
-        <v>0.105</v>
+        <v>0.439</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.03375706032556355</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4206,34 +4215,34 @@
         <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D90">
-        <v>0.582</v>
+        <v>225.296</v>
       </c>
       <c r="E90">
-        <v>0.334</v>
+        <v>231.634</v>
       </c>
       <c r="F90">
-        <v>0.3689999999999999</v>
+        <v>225.5130000000001</v>
       </c>
       <c r="G90">
-        <v>0.1387570603255635</v>
+        <v>227.6453920092027</v>
       </c>
       <c r="H90">
-        <v>0.06937853016278178</v>
+        <v>404.4030365867288</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>537.2481533950104</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>831.3376012963083</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>935.5503822147407</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1743.415357717952</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4244,34 +4253,34 @@
         <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D91">
-        <v>225.2960000000001</v>
+        <v>66.91234564031244</v>
       </c>
       <c r="E91">
-        <v>231.634</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="F91">
-        <v>225.513</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="G91">
-        <v>227.6503498978192</v>
+        <v>102.5820087418905</v>
       </c>
       <c r="H91">
-        <v>395.9327758165115</v>
+        <v>6.639764936336924</v>
       </c>
       <c r="I91">
-        <v>611.7944120514568</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>904.0082506718163</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>1008.969103578299</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>1744.030760025253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4282,25 +4291,25 @@
         <v>68</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D92">
-        <v>66.91234564031244</v>
+        <v>229.1565474368415</v>
       </c>
       <c r="E92">
-        <v>102.5820087418906</v>
+        <v>284.0669110913908</v>
       </c>
       <c r="F92">
-        <v>102.5820087418906</v>
+        <v>252.4097255083492</v>
       </c>
       <c r="G92">
-        <v>102.5820087418906</v>
+        <v>205.7653683019905</v>
       </c>
       <c r="H92">
-        <v>6.639764936336924</v>
+        <v>149.2089439835033</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>41.15948625803754</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4320,34 +4329,34 @@
         <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D93">
-        <v>229.1565474368445</v>
+        <v>9.862565402026727</v>
       </c>
       <c r="E93">
-        <v>284.0669110913908</v>
+        <v>4.541970908828097</v>
       </c>
       <c r="F93">
-        <v>252.4097255083492</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>205.7653683019905</v>
+        <v>17.52352150537634</v>
       </c>
       <c r="H93">
-        <v>284.0669110913908</v>
+        <v>18.00541834677419</v>
       </c>
       <c r="I93">
-        <v>284.0669110913908</v>
+        <v>18.0054183467742</v>
       </c>
       <c r="J93">
-        <v>284.0669110913908</v>
+        <v>7.009408602150538</v>
       </c>
       <c r="K93">
-        <v>284.0669110913908</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>284.0669110913908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4355,37 +4364,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D94">
-        <v>10.38164779160708</v>
+        <v>0.519082389580354</v>
       </c>
       <c r="E94">
-        <v>4.541970908828096</v>
+        <v>0.6488529869754424</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>17.52352150537634</v>
+        <v>8.761760752688174</v>
       </c>
       <c r="H94">
-        <v>14.01881720430107</v>
+        <v>8.279863911290324</v>
       </c>
       <c r="I94">
-        <v>10.5141129032258</v>
+        <v>8.279863911290324</v>
       </c>
       <c r="J94">
-        <v>7.009408602150537</v>
+        <v>19.27587365591398</v>
       </c>
       <c r="K94">
-        <v>3.504704301075269</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>18.00541834677419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4396,34 +4405,34 @@
         <v>70</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0.6488529869754424</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.01700220036809764</v>
       </c>
       <c r="G95">
-        <v>8.761760752688172</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>12.26646505376344</v>
+        <v>0.002077142229953807</v>
       </c>
       <c r="I95">
-        <v>15.77116935483871</v>
+        <v>0.01289559134429655</v>
       </c>
       <c r="J95">
-        <v>19.27587365591398</v>
+        <v>0.08022961863196582</v>
       </c>
       <c r="K95">
-        <v>22.78057795698925</v>
+        <v>0.4993796111180612</v>
       </c>
       <c r="L95">
-        <v>8.279863911290322</v>
+        <v>2.942618159101226</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4431,10 +4440,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4449,19 +4458,19 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>0.01680596895144444</v>
       </c>
       <c r="I96">
-        <v>0.01102534930380581</v>
+        <v>0.1043370572402176</v>
       </c>
       <c r="J96">
-        <v>0.07835937659147506</v>
+        <v>0.6491305507495414</v>
       </c>
       <c r="K96">
-        <v>0.4993796111180613</v>
+        <v>4.040435035409767</v>
       </c>
       <c r="L96">
-        <v>0.4993796111180613</v>
+        <v>23.80845601454629</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4472,7 +4481,7 @@
         <v>71</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4490,16 +4499,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0.08920509891261064</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0.6339985924219346</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="K97">
-        <v>4.040435035409769</v>
+        <v>0.6054866100587851</v>
       </c>
       <c r="L97">
-        <v>4.040435035409768</v>
+        <v>0.6054866100587851</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4510,7 +4519,7 @@
         <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4519,25 +4528,25 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.01700220036809764</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>0.008714295550498168</v>
       </c>
       <c r="I98">
-        <v>0.001870242040490741</v>
+        <v>0.05411212643810576</v>
       </c>
       <c r="J98">
-        <v>0.001870242040490741</v>
+        <v>0.3507113959698026</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>2.183045433686489</v>
       </c>
       <c r="L98">
-        <v>2.443238547983166</v>
+        <v>2.151632876981765</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4545,10 +4554,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4566,16 +4575,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>0.0151319583276069</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0.0151319583276069</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
       <c r="L99">
-        <v>19.76802097913652</v>
+        <v>10.74022329675517</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4583,7 +4592,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C100" t="s">
         <v>140</v>
@@ -4601,19 +4610,19 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0.008715448206862816</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0.008716030705214036</v>
+        <v>7.603138222849082</v>
       </c>
       <c r="J100">
-        <v>0.008715599224954461</v>
+        <v>45.35164925380289</v>
       </c>
       <c r="K100">
-        <v>1.841050500801079</v>
+        <v>45.35164925380285</v>
       </c>
       <c r="L100">
-        <v>1.832334599539764</v>
+        <v>557.0340359926402</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4621,10 +4630,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4639,19 +4648,19 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>-1.957194462609557E-07</v>
       </c>
       <c r="I101">
-        <v>0.04539521029943389</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>0.3419947827662371</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>0.3419945886001197</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>11.05952022582107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4659,37 +4668,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>3516.000795070563</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>3878.663459399527</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>2109.600477042338</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>3990.836262666459</v>
       </c>
       <c r="H102">
-        <v>4.542012463858854E-07</v>
+        <v>7402.488372093024</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>34596.72923533441</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>16022.50220507258</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>30616.67142942653</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>21654.54341255473</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4700,7 +4709,7 @@
         <v>76</v>
       </c>
       <c r="C103" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4715,19 +4724,19 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>3.236101953404263E-07</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>7.603138222849083</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>7.60313854645928</v>
+        <v>16418.73052014734</v>
       </c>
       <c r="K103">
-        <v>7.603138222849084</v>
+        <v>16743.37195998325</v>
       </c>
       <c r="L103">
-        <v>520.9513674752515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -4735,37 +4744,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D104">
-        <v>3516.000795070563</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>3878.663459399533</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>2109.600477042338</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1872.000790906009</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>7402.488372093024</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2280.336705837994</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>7402.488372093024</v>
+        <v>16671</v>
       </c>
       <c r="K104">
-        <v>7402.488372093024</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>410.9838605551968</v>
+        <v>21160.3</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -4776,34 +4785,34 @@
         <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1811.470425971182</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1857.8</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1772.368108473762</v>
       </c>
       <c r="G105">
-        <v>2366.491565862314</v>
+        <v>1857.8</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1741.698567082206</v>
       </c>
       <c r="I105">
-        <v>5720.844718154966</v>
+        <v>593.2337390432787</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>26.28093064382398</v>
       </c>
       <c r="K105">
         <v>0</v>
       </c>
       <c r="L105">
-        <v>7808.693350548743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -4814,34 +4823,34 @@
         <v>78</v>
       </c>
       <c r="C106" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D106">
-        <v>1811.470425971182</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1772.368108473762</v>
+        <v>0.1558802970586208</v>
       </c>
       <c r="G106">
-        <v>1857.8</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>1741.842288716095</v>
+        <v>0.019048834284256</v>
       </c>
       <c r="I106">
-        <v>1764.371270141468</v>
+        <v>0.1183032866074846</v>
       </c>
       <c r="J106">
-        <v>1798.574400555539</v>
+        <v>7.006156063015901</v>
       </c>
       <c r="K106">
-        <v>1803.598231006942</v>
+        <v>4.578404029724688</v>
       </c>
       <c r="L106">
-        <v>1462.053537516444</v>
+        <v>26.93572005808832</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -4849,10 +4858,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4867,19 +4876,19 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>0.1541223864817076</v>
       </c>
       <c r="I107">
-        <v>0.1011564539310363</v>
+        <v>0.9571811370969205</v>
       </c>
       <c r="J107">
-        <v>0.7180713326808009</v>
+        <v>56.6861717825832</v>
       </c>
       <c r="K107">
-        <v>4.578404029724687</v>
+        <v>37.04345078595428</v>
       </c>
       <c r="L107">
-        <v>4.578404029724687</v>
+        <v>217.9344622881691</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -4890,7 +4899,7 @@
         <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4908,16 +4917,16 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>0.8184476727147486</v>
+        <v>0.8925869894099848</v>
       </c>
       <c r="J108">
-        <v>5.809849873508298</v>
+        <v>5.547150781643973</v>
       </c>
       <c r="K108">
-        <v>37.04345078595428</v>
+        <v>34.54362077660112</v>
       </c>
       <c r="L108">
-        <v>37.04345078595429</v>
+        <v>34.54362077660111</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -4928,7 +4937,7 @@
         <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4937,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0.1558802970586208</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -4946,16 +4955,16 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0.01714683267644829</v>
+        <v>0.8936930451589494</v>
       </c>
       <c r="J109">
-        <v>0.01714683267644829</v>
+        <v>0.8936930451589429</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>0.8936936069821996</v>
       </c>
       <c r="L109">
-        <v>22.35731602836362</v>
+        <v>169.7865312404509</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -4963,10 +4972,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C110" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -4984,16 +4993,16 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0.1387334643821726</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0.1387334643821726</v>
+        <v>4.660331529275172</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>33.69273271381715</v>
       </c>
       <c r="L110">
-        <v>180.8910115022148</v>
+        <v>33.69273271381714</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5001,37 +5010,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C111" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>3415.801411290322</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>3283.178823951229</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>3281.917735241551</v>
       </c>
       <c r="G111">
-        <v>-5.324197341199505E-07</v>
+        <v>3062.588677889746</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>3153.697614506171</v>
       </c>
       <c r="I111">
-        <v>8.854334511820134E-07</v>
+        <v>1512.776489846944</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>993.1095924888427</v>
       </c>
       <c r="K111">
-        <v>0.4077528955433519</v>
+        <v>1021.01873353249</v>
       </c>
       <c r="L111">
-        <v>203.479263954268</v>
+        <v>1055.959180396588</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5039,37 +5048,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C112" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D112">
-        <v>3415.801411290323</v>
+        <v>198.398</v>
       </c>
       <c r="E112">
-        <v>3272.721004406673</v>
+        <v>148.868098613329</v>
       </c>
       <c r="F112">
-        <v>3271.459915696995</v>
+        <v>114.7239463731919</v>
       </c>
       <c r="G112">
-        <v>3072.164779575224</v>
+        <v>198.398</v>
       </c>
       <c r="H112">
-        <v>3181.160591668052</v>
+        <v>198.398</v>
       </c>
       <c r="I112">
-        <v>3197.186538434955</v>
+        <v>198.398</v>
       </c>
       <c r="J112">
-        <v>3457.724279361321</v>
+        <v>184.2545154247088</v>
       </c>
       <c r="K112">
-        <v>3433.938946554217</v>
+        <v>158.3520660744128</v>
       </c>
       <c r="L112">
-        <v>3505.524839447173</v>
+        <v>75.17310175991842</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5077,37 +5086,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C113" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D113">
-        <v>198.398</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>156.9911345778833</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>134.7581452084169</v>
+        <v>546.7610551540853</v>
       </c>
       <c r="G113">
-        <v>198.398</v>
+        <v>710.471</v>
       </c>
       <c r="H113">
-        <v>198.398</v>
+        <v>710.471</v>
       </c>
       <c r="I113">
-        <v>198.398</v>
+        <v>898.6591919103175</v>
       </c>
       <c r="J113">
-        <v>198.398</v>
+        <v>877.4294509640193</v>
       </c>
       <c r="K113">
-        <v>198.398</v>
+        <v>856.6458417389567</v>
       </c>
       <c r="L113">
-        <v>203.7381177288368</v>
+        <v>136.2574031043075</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5118,34 +5127,34 @@
         <v>84</v>
       </c>
       <c r="C114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>630.6206835308512</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>600.0411754519032</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>710.471</v>
+        <v>137.2468400318679</v>
       </c>
       <c r="H114">
-        <v>285.3845383114062</v>
+        <v>158.4765809781662</v>
       </c>
       <c r="I114">
-        <v>1075.420525742187</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>997.2668554772707</v>
+        <v>21.22974094629838</v>
       </c>
       <c r="K114">
-        <v>675.5241366011936</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>483.5464551192577</v>
+        <v>697.8287818620822</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5153,37 +5162,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C115" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D115">
-        <v>628.3320358228609</v>
+        <v>335.6549564323911</v>
       </c>
       <c r="E115">
-        <v>597.8380360266744</v>
+        <v>316.9922824998383</v>
       </c>
       <c r="F115">
-        <v>546.251634536075</v>
+        <v>264.249782595525</v>
       </c>
       <c r="G115">
-        <v>137.5152581085066</v>
+        <v>337.681</v>
       </c>
       <c r="H115">
-        <v>650.132231549021</v>
+        <v>337.681</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>342.6031052120975</v>
       </c>
       <c r="J115">
-        <v>137.5152581085066</v>
+        <v>379.3010274517645</v>
       </c>
       <c r="K115">
-        <v>459.2579769845836</v>
+        <v>269.3893244413277</v>
       </c>
       <c r="L115">
-        <v>618.253681543951</v>
+        <v>113.937028444684</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5191,37 +5200,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C116" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D116">
-        <v>323.5058620331723</v>
+        <v>122.6882252370688</v>
       </c>
       <c r="E116">
-        <v>316.9866344522187</v>
+        <v>63.39351851851853</v>
       </c>
       <c r="F116">
-        <v>264.2441345479052</v>
+        <v>50.71481481481482</v>
       </c>
       <c r="G116">
-        <v>337.681</v>
+        <v>104.376403747646</v>
       </c>
       <c r="H116">
-        <v>337.681</v>
+        <v>25.35740740740741</v>
       </c>
       <c r="I116">
-        <v>342.6001124744687</v>
+        <v>19.51638774325173</v>
       </c>
       <c r="J116">
-        <v>382.7512388870109</v>
+        <v>0</v>
       </c>
       <c r="K116">
-        <v>290.8432733250226</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>213.1624009662761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5229,37 +5238,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C117" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D117">
-        <v>120.0886009425598</v>
+        <v>175.2289212311761</v>
       </c>
       <c r="E117">
-        <v>63.3935185185185</v>
+        <v>153.2189611228842</v>
       </c>
       <c r="F117">
-        <v>50.71481481481482</v>
+        <v>128.89946190226</v>
       </c>
       <c r="G117">
-        <v>104.376403747648</v>
+        <v>108.4664915863009</v>
       </c>
       <c r="H117">
-        <v>25.35740740740741</v>
+        <v>81.80167148814905</v>
       </c>
       <c r="I117">
-        <v>12.67870370370371</v>
+        <v>59.48326157685515</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>36.31483349276642</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>35.13775133489406</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>34.02555865048727</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5267,37 +5276,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C118" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D118">
-        <v>175.2289212311773</v>
+        <v>26.67761066733219</v>
       </c>
       <c r="E118">
-        <v>153.2189611228841</v>
+        <v>296.0204633242456</v>
       </c>
       <c r="F118">
-        <v>128.8994619022604</v>
+        <v>330.3231452642156</v>
       </c>
       <c r="G118">
-        <v>108.0261230627174</v>
+        <v>360.9396824807119</v>
       </c>
       <c r="H118">
-        <v>81.89522442070364</v>
+        <v>322.9700096892706</v>
       </c>
       <c r="I118">
-        <v>59.57681450937778</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>36.46792442830173</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>35.50764701383949</v>
+        <v>0</v>
       </c>
       <c r="L118">
-        <v>35.51856254037263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5308,34 +5317,34 @@
         <v>88</v>
       </c>
       <c r="C119" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D119">
-        <v>26.95767202780405</v>
+        <v>306.7925226743203</v>
       </c>
       <c r="E119">
-        <v>295.6746721973819</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>332.1867771857987</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>360.2909067395079</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>348.4440974714039</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>256.919107818186</v>
+        <v>157.4481671949369</v>
       </c>
       <c r="J119">
-        <v>151.623660205513</v>
+        <v>128.818065291222</v>
       </c>
       <c r="K119">
-        <v>148.5259142855373</v>
+        <v>129.858177524934</v>
       </c>
       <c r="L119">
-        <v>144.2611083221461</v>
+        <v>127.4755889142268</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5343,28 +5352,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D120">
-        <v>310.0132283197468</v>
+        <v>407.0074734482478</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>360.3696223157568</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>357.5420427697013</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>440.8344925136496</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>128.3795164779751</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>45.02213167484755</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5384,34 +5393,34 @@
         <v>89</v>
       </c>
       <c r="C121" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D121">
-        <v>396.3119529836476</v>
+        <v>52.887976775761</v>
       </c>
       <c r="E121">
-        <v>355.2079819778073</v>
+        <v>46.82769103538083</v>
       </c>
       <c r="F121">
-        <v>364.5804369125757</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>402.8963881085302</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>150.9020279804633</v>
+        <v>16.68208406210976</v>
       </c>
       <c r="I121">
-        <v>73.86944816314643</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>22.99698299382717</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>8.755341940555564</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>17.85578723656078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -5422,7 +5431,7 @@
         <v>89</v>
       </c>
       <c r="C122" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -5431,16 +5440,16 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>46.46026544465044</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>57.28357812324259</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>5.850333494471714</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -5449,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>2.320243539214113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -5457,37 +5466,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C123" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D123">
-        <v>51.4981633820559</v>
+        <v>116.919</v>
       </c>
       <c r="E123">
-        <v>46.15696940954557</v>
+        <v>128.4928597186131</v>
       </c>
       <c r="F123">
-        <v>47.37485903383751</v>
+        <v>137.5866066403805</v>
       </c>
       <c r="G123">
-        <v>52.35376794630618</v>
+        <v>117.1719078235902</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>206.9386345645734</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>211.5315990738122</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>228.4050057279815</v>
       </c>
       <c r="K123">
-        <v>1.137699800185186</v>
+        <v>210.7507061617916</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>44.39558430171371</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -5498,34 +5507,34 @@
         <v>90</v>
       </c>
       <c r="C124" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D124">
-        <v>65.47464000000001</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>147.9607636285804</v>
+        <v>9.093746921767437</v>
       </c>
       <c r="F124">
-        <v>134.302387632005</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>164.7555878940312</v>
+        <v>60.53810692176742</v>
       </c>
       <c r="H124">
-        <v>196.5769346113029</v>
+        <v>17.65429956618991</v>
       </c>
       <c r="I124">
-        <v>178.2452231317742</v>
+        <v>37.50189118374789</v>
       </c>
       <c r="J124">
-        <v>141.2320645249702</v>
+        <v>20.62848452957852</v>
       </c>
       <c r="K124">
-        <v>192.6764245249701</v>
+        <v>38.28278409576843</v>
       </c>
       <c r="L124">
-        <v>168.9664856976995</v>
+        <v>34.88224480848934</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -5533,37 +5542,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C125" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D125">
-        <v>51.44435999999998</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>13.65837599657534</v>
+        <v>119.9977643012086</v>
       </c>
       <c r="G125">
-        <v>13.19593335142564</v>
+        <v>119.9977643012086</v>
       </c>
       <c r="H125">
-        <v>38.19842005785347</v>
+        <v>119.9977643012086</v>
       </c>
       <c r="I125">
-        <v>71.012563348174</v>
+        <v>84.60734845723795</v>
       </c>
       <c r="J125">
-        <v>110.9680506981908</v>
+        <v>84.46979825643456</v>
       </c>
       <c r="K125">
-        <v>59.52369069819078</v>
+        <v>3.571983076609364</v>
       </c>
       <c r="L125">
-        <v>85.96556399176296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5574,34 +5583,34 @@
         <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>84.17200000000001</v>
       </c>
       <c r="E126">
         <v>84.17200000000001</v>
       </c>
       <c r="F126">
-        <v>120.7897367089465</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>120.7897367089465</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>120.7897367089465</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>120.7897367089465</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>120.7897367089465</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>120.7897367089465</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>120.7897367089465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5609,28 +5618,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C127" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D127">
-        <v>84.17200000000001</v>
+        <v>394.4639999999999</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>396.839842286928</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>317.8492847592603</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>76.2689020629558</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>39.66750885389544</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>3.066115644835043</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -5647,37 +5656,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C128" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D128">
-        <v>394.4639999999999</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>396.8024082009234</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>317.8492847592604</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>76.26890206295579</v>
+        <v>91.46446694264722</v>
       </c>
       <c r="H128">
-        <v>39.66750885389536</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>3.066115644835013</v>
+        <v>447.7272365014645</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>598.9359717086834</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>707.1</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>447.7272365014645</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5688,34 +5697,34 @@
         <v>93</v>
       </c>
       <c r="C129" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>736.6623662003617</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>867.7862143687028</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>654.8780383383357</v>
       </c>
       <c r="G129">
-        <v>80.93568697922713</v>
+        <v>742.010804645963</v>
       </c>
       <c r="H129">
-        <v>80.93568697922713</v>
+        <v>889.7444669426473</v>
       </c>
       <c r="I129">
-        <v>80.93568697922713</v>
+        <v>889.7444669426471</v>
       </c>
       <c r="J129">
-        <v>80.93568697922713</v>
+        <v>1020.300446390036</v>
       </c>
       <c r="K129">
-        <v>80.93568697922713</v>
+        <v>912.1364180987194</v>
       </c>
       <c r="L129">
-        <v>80.93568697922713</v>
+        <v>1206.645203104599</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5726,19 +5735,19 @@
         <v>93</v>
       </c>
       <c r="C130" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="D130">
-        <v>744.7820924838369</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>80.93568697922713</v>
+        <v>21.95825257394441</v>
       </c>
       <c r="F130">
-        <v>16.99295260008282</v>
+        <v>39.04283251349739</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>56.26919535403704</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -5761,37 +5770,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C131" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>10.71184623334388</v>
       </c>
       <c r="E131">
-        <v>798.28</v>
+        <v>12.50262857793246</v>
       </c>
       <c r="F131">
-        <v>628.5480158501509</v>
+        <v>16.28552938826363</v>
       </c>
       <c r="G131">
-        <v>730.1553546709574</v>
+        <v>29.97170309890272</v>
       </c>
       <c r="H131">
-        <v>798.28</v>
+        <v>33.6331336654908</v>
       </c>
       <c r="I131">
-        <v>798.28</v>
+        <v>37.35132602263295</v>
       </c>
       <c r="J131">
-        <v>798.28</v>
+        <v>36.68131028638138</v>
       </c>
       <c r="K131">
-        <v>798.28</v>
+        <v>37.0082893581725</v>
       </c>
       <c r="L131">
-        <v>798.28</v>
+        <v>37.03051942992438</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5799,28 +5808,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C132" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D132">
-        <v>10.18718121597448</v>
+        <v>1.791145833333334</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>32.68817800854033</v>
       </c>
       <c r="F132">
-        <v>28.6564819322314</v>
+        <v>31.36439764674081</v>
       </c>
       <c r="G132">
-        <v>68.12464532904261</v>
+        <v>31.79404974607724</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>0.3142361111111111</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>0.1571180555555556</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -5837,37 +5846,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C133" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D133">
-        <v>7.424779538607461</v>
+        <v>4145.937</v>
       </c>
       <c r="E133">
-        <v>12.41664885227726</v>
+        <v>4145.129</v>
       </c>
       <c r="F133">
-        <v>16.19604040160018</v>
+        <v>4067.867</v>
       </c>
       <c r="G133">
-        <v>29.88221411223928</v>
+        <v>4218.838308555965</v>
       </c>
       <c r="H133">
-        <v>33.54364467882734</v>
+        <v>4316.071211586634</v>
       </c>
       <c r="I133">
-        <v>37.26183703596958</v>
+        <v>5524.303888072325</v>
       </c>
       <c r="J133">
-        <v>36.92307608290886</v>
+        <v>5934.558092295173</v>
       </c>
       <c r="K133">
-        <v>37.00811253494359</v>
+        <v>6063.830681921403</v>
       </c>
       <c r="L133">
-        <v>37.03051942992438</v>
+        <v>6110.565450470345</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -5875,37 +5884,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C134" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D134">
-        <v>2.007</v>
+        <v>1037.186561495502</v>
       </c>
       <c r="E134">
-        <v>32.70469000920366</v>
+        <v>1012.043078947369</v>
       </c>
       <c r="F134">
-        <v>0.6284722222222222</v>
+        <v>967.357854504147</v>
       </c>
       <c r="G134">
-        <v>31.80905600303899</v>
+        <v>999.3602771942066</v>
       </c>
       <c r="H134">
-        <v>0.3142361111111111</v>
+        <v>856.7476472556325</v>
       </c>
       <c r="I134">
-        <v>31.29473862031477</v>
+        <v>861.3544070243665</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>777.9767105605973</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>773.3470366966892</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>764.2442469282105</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -5913,37 +5922,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C135" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="D135">
-        <v>4145.937</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>4145.129</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>4067.867000000001</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>4239.246909102061</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>4296.740885102829</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>4235.952677723159</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>4227.154097351053</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>4227.644662808189</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>4220.527439685911</v>
+        <v>79.39717074294109</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -5951,37 +5960,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C136" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D136">
-        <v>1035.010533010613</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>1016.592095609746</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>988.6870529357561</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>1019.049503056458</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>797.0624411098677</v>
+        <v>168.6766569287028</v>
       </c>
       <c r="I136">
-        <v>880.0450752084333</v>
+        <v>431.0849391472044</v>
       </c>
       <c r="J136">
-        <v>749.0652859206251</v>
+        <v>680.1924697627612</v>
       </c>
       <c r="K136">
-        <v>763.6917284257441</v>
+        <v>814.7794129221796</v>
       </c>
       <c r="L136">
-        <v>854.1080794335945</v>
+        <v>824.038211974102</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -5989,74 +5998,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.08999999999960577</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="H137">
-        <v>43.62808652751023</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="I137">
-        <v>42.437010258079</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>153.3233615619443</v>
+        <v>0</v>
       </c>
       <c r="K137">
-        <v>145.3540946868764</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <v>109.6952750344314</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>99</v>
-      </c>
-      <c r="C138" t="s">
-        <v>139</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0.09</v>
-      </c>
-      <c r="F138">
-        <v>0.09</v>
-      </c>
-      <c r="G138">
-        <v>0.09000000000000002</v>
-      </c>
-      <c r="H138">
-        <v>0.09000000000000001</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
         <v>0</v>
       </c>
     </row>
@@ -6078,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
